--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,53 +436,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IndiceReal</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Producto</t>
+          <t>Cantidad</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad</t>
+          <t>Costo_Unitario</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Costo_Unitario</t>
+          <t>PVP</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PVP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>Ganancia</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Coca Cola</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,107 @@
           <t>Ganancia</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Categoría</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Salchipapa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Coca cola</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bebida</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gorro de baño</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chochos con tostado</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Salchipapa</t>
+          <t>Salchipapas</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -499,13 +499,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gorro de baño</t>
+          <t>gorros</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -526,38 +526,14 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Otros</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chochos con tostado</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comida</t>
         </is>
       </c>
     </row>

--- a/data/inventario.xlsx
+++ b/data/inventario.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Salchipapas</t>
+          <t>chochos</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -492,20 +492,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coca cola</t>
+          <t>cola</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -516,20 +516,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gorros</t>
+          <t>gorro</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
         <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
